--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x + 2y</t>
-  </si>
-  <si>
-    <t>-5.084293056239593</t>
+    <t>-12.85 + x + 2y</t>
+  </si>
+  <si>
+    <t>-1.1500000000000004</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
-  </si>
-  <si>
-    <t>0.3990843059503959</t>
-  </si>
-  <si>
-    <t>0.575593002467233</t>
-  </si>
-  <si>
-    <t>-2 + x - 2y</t>
-  </si>
-  <si>
-    <t>-7.61098921201671</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>3.3499999999999996 + x - 2y</t>
+  </si>
+  <si>
+    <t>-5.35</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>0.9183183951139205</t>
-  </si>
-  <si>
-    <t>0.5193973607464344</t>
-  </si>
-  <si>
-    <t>-1 - 2x + y</t>
-  </si>
-  <si>
-    <t>-0.6730436927994186</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>-7.45 - 2x + y</t>
+  </si>
+  <si>
+    <t>-6.45</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.7194740091510164</t>
-  </si>
-  <si>
-    <t>0.830056363405302</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.6827830839950013</t>
+    <t>1.7800000000000002</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.8168275854940186</t>
-  </si>
-  <si>
-    <t>-2.9443539087125257</t>
+    <t>9.699999999999998</t>
+  </si>
+  <si>
+    <t>-4.999999999999998</t>
   </si>
   <si>
     <t>vec_alpha</t>
